--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_12_2.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_12_2.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999379069272541</v>
+        <v>0.6266538815311176</v>
       </c>
       <c r="C2" t="n">
-        <v>0.687166339739031</v>
+        <v>-19.79791658763012</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999958247677698</v>
+        <v>0.6423426300792486</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999267975117025</v>
+        <v>0.7089168963887924</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999708807888305</v>
+        <v>0.6971347662617967</v>
       </c>
       <c r="G2" t="n">
-        <v>3.686113026299528e-05</v>
+        <v>0.2216343836356898</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1857115744413868</v>
+        <v>12.34654170963367</v>
       </c>
       <c r="I2" t="n">
-        <v>3.476093606127535e-06</v>
+        <v>0.2117391993668059</v>
       </c>
       <c r="J2" t="n">
-        <v>3.515815745382413e-05</v>
+        <v>0.2877095690093331</v>
       </c>
       <c r="K2" t="n">
-        <v>1.931712552997583e-05</v>
+        <v>0.2497243841880695</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001709702462186065</v>
+        <v>0.2971978375409462</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006071336777267036</v>
+        <v>0.4707806109385664</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000033116305465</v>
+        <v>-0.1200383554066473</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006329806153275023</v>
+        <v>0.4908227161964342</v>
       </c>
       <c r="P2" t="n">
-        <v>158.416705885039</v>
+        <v>35.01345235066866</v>
       </c>
       <c r="Q2" t="n">
-        <v>242.5191378009448</v>
+        <v>54.51546554855987</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999459070576847</v>
+        <v>0.6752529398594749</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6869096264378824</v>
+        <v>-22.25965728856655</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999937815160411</v>
+        <v>0.4480869177246298</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999916934996546</v>
+        <v>0.8382658497250421</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999660284153311</v>
+        <v>0.7049252902714597</v>
       </c>
       <c r="G3" t="n">
-        <v>3.211190725178924e-05</v>
+        <v>0.1927838832419695</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1858639705463857</v>
+        <v>13.80793733137069</v>
       </c>
       <c r="I3" t="n">
-        <v>5.177204796680585e-06</v>
+        <v>0.32674185963775</v>
       </c>
       <c r="J3" t="n">
-        <v>3.989498906744124e-05</v>
+        <v>0.1598597173536088</v>
       </c>
       <c r="K3" t="n">
-        <v>2.253609693206091e-05</v>
+        <v>0.2433007884956794</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001554446941382825</v>
+        <v>0.2758487417664461</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005666736913938147</v>
+        <v>0.4390716151631412</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000028849569235</v>
+        <v>0.02575881957842463</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005907981636127044</v>
+        <v>0.457763802824179</v>
       </c>
       <c r="P3" t="n">
-        <v>158.6925673083742</v>
+        <v>35.29237098688621</v>
       </c>
       <c r="Q3" t="n">
-        <v>242.79499922428</v>
+        <v>54.79438418477742</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999521090757294</v>
+        <v>0.6666407614819818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6866381755551187</v>
+        <v>-24.45052119283698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999912527958279</v>
+        <v>0.3946636886881122</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999082113277129</v>
+        <v>0.8076517036161758</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999612836686389</v>
+        <v>0.6673972003515141</v>
       </c>
       <c r="G4" t="n">
-        <v>2.84301214272321e-05</v>
+        <v>0.1978964443535842</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1860251155164618</v>
+        <v>15.10852878533844</v>
       </c>
       <c r="I4" t="n">
-        <v>7.282493240643719e-06</v>
+        <v>0.3583693128796283</v>
       </c>
       <c r="J4" t="n">
-        <v>4.408484831325877e-05</v>
+        <v>0.1901190579793542</v>
       </c>
       <c r="K4" t="n">
-        <v>2.568367077695125e-05</v>
+        <v>0.2742441854294912</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001486899177423823</v>
+        <v>0.2890598427569666</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005331990381389683</v>
+        <v>0.4448555320029012</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000025541826278</v>
+        <v>-7.771555405455821e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005558984250667142</v>
+        <v>0.4637939529781661</v>
       </c>
       <c r="P4" t="n">
-        <v>158.9361227224309</v>
+        <v>35.24002278683878</v>
       </c>
       <c r="Q4" t="n">
-        <v>243.0385546383367</v>
+        <v>54.74203598472999</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999571101062563</v>
+        <v>0.6558020893602312</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6863579123056147</v>
+        <v>-25.69652759123436</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999889038012387</v>
+        <v>0.3191920609389787</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999014366181036</v>
+        <v>0.7977149289734053</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999573572221583</v>
+        <v>0.63434718815529</v>
       </c>
       <c r="G5" t="n">
-        <v>2.546129367318063e-05</v>
+        <v>0.204330748331312</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1861914918881094</v>
+        <v>15.84821200810093</v>
       </c>
       <c r="I5" t="n">
-        <v>9.238150943518813e-06</v>
+        <v>0.403049790281931</v>
       </c>
       <c r="J5" t="n">
-        <v>4.733864900622641e-05</v>
+        <v>0.1999406694516331</v>
       </c>
       <c r="K5" t="n">
-        <v>2.828839997487261e-05</v>
+        <v>0.301495229866782</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001451371039252355</v>
+        <v>0.2926603687587235</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005045918516304106</v>
+        <v>0.4520295878936599</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000022874609997</v>
+        <v>-0.03259373191930637</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005260733714034474</v>
+        <v>0.4712734232805373</v>
       </c>
       <c r="P5" t="n">
-        <v>159.1567023082785</v>
+        <v>35.17603056540236</v>
       </c>
       <c r="Q5" t="n">
-        <v>243.2591342241843</v>
+        <v>54.67804376329357</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999613082101454</v>
+        <v>0.6480315635801686</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6860765044579574</v>
+        <v>-26.08791535891222</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999870642885212</v>
+        <v>0.2730258043933317</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998969018778561</v>
+        <v>0.7920993990074101</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999545613453168</v>
+        <v>0.6144077876805301</v>
       </c>
       <c r="G6" t="n">
-        <v>2.296911785601845e-05</v>
+        <v>0.2089436681035928</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1863585477426648</v>
+        <v>16.08055669406573</v>
       </c>
       <c r="I6" t="n">
-        <v>1.076963902450379e-05</v>
+        <v>0.4303809933294281</v>
       </c>
       <c r="J6" t="n">
-        <v>4.951662294322847e-05</v>
+        <v>0.2054911177127367</v>
       </c>
       <c r="K6" t="n">
-        <v>3.014313098386613e-05</v>
+        <v>0.3179360555210824</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001404314398133581</v>
+        <v>0.2939792278114667</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004792610755738301</v>
+        <v>0.4571035638710256</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000020635621256</v>
+        <v>-0.05590530925949433</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004996642117682031</v>
+        <v>0.4765634089198378</v>
       </c>
       <c r="P6" t="n">
-        <v>159.3627198923586</v>
+        <v>35.1313811879041</v>
       </c>
       <c r="Q6" t="n">
-        <v>243.4651518082644</v>
+        <v>54.6333943857953</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999649292345999</v>
+        <v>0.6442417777085805</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6858009898652733</v>
+        <v>-26.46448950804774</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999858151836241</v>
+        <v>0.2523289921358767</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999894435144673</v>
+        <v>0.7892992693365098</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999528845694592</v>
+        <v>0.6052993475614263</v>
       </c>
       <c r="G7" t="n">
-        <v>2.081952131967275e-05</v>
+        <v>0.2111934487071929</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1865221051064928</v>
+        <v>16.3041073761488</v>
       </c>
       <c r="I7" t="n">
-        <v>1.180958250719732e-05</v>
+        <v>0.4426338554969536</v>
       </c>
       <c r="J7" t="n">
-        <v>5.070136127197492e-05</v>
+        <v>0.2082587950213482</v>
       </c>
       <c r="K7" t="n">
-        <v>3.125547188958612e-05</v>
+        <v>0.3254463252591508</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001348869618350988</v>
+        <v>0.2944793975199864</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004562841364727986</v>
+        <v>0.4595578839571713</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000018704408213</v>
+        <v>-0.06727466687425854</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004757090968008197</v>
+        <v>0.4791222144931936</v>
       </c>
       <c r="P7" t="n">
-        <v>159.5592389728239</v>
+        <v>35.10996149401993</v>
       </c>
       <c r="Q7" t="n">
-        <v>243.6616708887297</v>
+        <v>54.61197469191114</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999680974887867</v>
+        <v>0.6426033780099659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.685538117813</v>
+        <v>-26.89938640738533</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999851076976604</v>
+        <v>0.2426237318315076</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998936626056142</v>
+        <v>0.7886237397071254</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999952160959352</v>
+        <v>0.6014102813020681</v>
       </c>
       <c r="G8" t="n">
-        <v>1.893870877297662e-05</v>
+        <v>0.2121660735434723</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1866781573122036</v>
+        <v>16.56228096216344</v>
       </c>
       <c r="I8" t="n">
-        <v>1.239860062626523e-05</v>
+        <v>0.4483795333979818</v>
       </c>
       <c r="J8" t="n">
-        <v>5.107240125300623e-05</v>
+        <v>0.2089264955374964</v>
       </c>
       <c r="K8" t="n">
-        <v>3.173550093963573e-05</v>
+        <v>0.3286530144677391</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00132567444554448</v>
+        <v>0.2944868300900829</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004351862678552325</v>
+        <v>0.4606148863676382</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000017014672647</v>
+        <v>-0.07218986597010213</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00453713048237595</v>
+        <v>0.4802242156845707</v>
       </c>
       <c r="P8" t="n">
-        <v>159.7486052942712</v>
+        <v>35.10077189041969</v>
       </c>
       <c r="Q8" t="n">
-        <v>243.851037210177</v>
+        <v>54.6027850883109</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999708781028462</v>
+        <v>0.6419530096394932</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6852919786168675</v>
+        <v>-27.32468300583279</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999848116337904</v>
+        <v>0.2382011284011701</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998941423928256</v>
+        <v>0.7886498112294494</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999521488599659</v>
+        <v>0.5998382000750333</v>
       </c>
       <c r="G9" t="n">
-        <v>1.728801615092691e-05</v>
+        <v>0.2125521603026356</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1868242761716875</v>
+        <v>16.8147553948583</v>
       </c>
       <c r="I9" t="n">
-        <v>1.264508888575661e-05</v>
+        <v>0.4509977892713727</v>
       </c>
       <c r="J9" t="n">
-        <v>5.084196599438059e-05</v>
+        <v>0.2089007261734962</v>
       </c>
       <c r="K9" t="n">
-        <v>3.17435274400686e-05</v>
+        <v>0.3299492577224344</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00130788066773077</v>
+        <v>0.2943549284684298</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004157886019472745</v>
+        <v>0.4610337951849469</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000015531678482</v>
+        <v>-0.0741409710815204</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004334895835332312</v>
+        <v>0.4806609583174932</v>
       </c>
       <c r="P9" t="n">
-        <v>159.930994009065</v>
+        <v>35.09713572098082</v>
       </c>
       <c r="Q9" t="n">
-        <v>244.0334259249709</v>
+        <v>54.59914891887202</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999733098479854</v>
+        <v>0.6417681421526584</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6850646096386279</v>
+        <v>-27.73198661442883</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999848060440342</v>
+        <v>0.2363180805731223</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998954556857187</v>
+        <v>0.7889429379579025</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999526207630741</v>
+        <v>0.5993378805220757</v>
       </c>
       <c r="G10" t="n">
-        <v>1.584442719039093e-05</v>
+        <v>0.2126619056286803</v>
       </c>
       <c r="H10" t="n">
-        <v>0.186959252218999</v>
+        <v>17.05654841152067</v>
       </c>
       <c r="I10" t="n">
-        <v>1.264974264270329e-05</v>
+        <v>0.4521125853667771</v>
       </c>
       <c r="J10" t="n">
-        <v>5.021120931667405e-05</v>
+        <v>0.2086109966644245</v>
       </c>
       <c r="K10" t="n">
-        <v>3.143047597968867e-05</v>
+        <v>0.3303617910156008</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001284467785901429</v>
+        <v>0.2941777296501875</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00398050589628893</v>
+        <v>0.4611528007381939</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000014234747741</v>
+        <v>-0.07469557354202472</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004149964273077087</v>
+        <v>0.4807850301835172</v>
       </c>
       <c r="P10" t="n">
-        <v>160.1053854325728</v>
+        <v>35.09610334376402</v>
       </c>
       <c r="Q10" t="n">
-        <v>244.2078173484786</v>
+        <v>54.59811654165523</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999754153395871</v>
+        <v>0.6417228473410241</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6848567237178522</v>
+        <v>-28.14116819736692</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999849720633537</v>
+        <v>0.2352243795174757</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998972348389017</v>
+        <v>0.7893126113313215</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999533689928793</v>
+        <v>0.599166815076527</v>
       </c>
       <c r="G11" t="n">
-        <v>1.459451642314201e-05</v>
+        <v>0.2126887945855005</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1870826622817757</v>
+        <v>17.29945627487674</v>
       </c>
       <c r="I11" t="n">
-        <v>1.251152309868008e-05</v>
+        <v>0.4527600748506945</v>
       </c>
       <c r="J11" t="n">
-        <v>4.935670629091901e-05</v>
+        <v>0.2082456076548217</v>
       </c>
       <c r="K11" t="n">
-        <v>3.093411469479955e-05</v>
+        <v>0.3305028412527581</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001258556289754147</v>
+        <v>0.2940104726525711</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003820277008692172</v>
+        <v>0.461181953881004</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000013111818887</v>
+        <v>-0.07483145797692758</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003982914110015812</v>
+        <v>0.4808154244359721</v>
       </c>
       <c r="P11" t="n">
-        <v>160.2697293745133</v>
+        <v>35.09585047988636</v>
       </c>
       <c r="Q11" t="n">
-        <v>244.3721612904191</v>
+        <v>54.59786367777757</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999772321931246</v>
+        <v>0.6438420403878725</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6846673130262176</v>
+        <v>-28.79059222631817</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999852367912303</v>
+        <v>0.2423478575180319</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998992759631179</v>
+        <v>0.7929169344934504</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999542739961558</v>
+        <v>0.6038844596604438</v>
       </c>
       <c r="G12" t="n">
-        <v>1.351595367925487e-05</v>
+        <v>0.2114307500485183</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1871951046504458</v>
+        <v>17.68498243211952</v>
       </c>
       <c r="I12" t="n">
-        <v>1.22911236505306e-05</v>
+        <v>0.448542855647637</v>
       </c>
       <c r="J12" t="n">
-        <v>4.837638214834392e-05</v>
+        <v>0.204683057129967</v>
       </c>
       <c r="K12" t="n">
-        <v>3.033375289943726e-05</v>
+        <v>0.3266129563888019</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001231281260508062</v>
+        <v>0.2929056123861794</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003676404993911153</v>
+        <v>0.4598159958597768</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000012142830333</v>
+        <v>-0.06847387883638234</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003832917165709438</v>
+        <v>0.4793913147538584</v>
       </c>
       <c r="P12" t="n">
-        <v>160.4232796324453</v>
+        <v>35.10771551409769</v>
       </c>
       <c r="Q12" t="n">
-        <v>244.5257115483512</v>
+        <v>54.6097287119889</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999787852266925</v>
+        <v>0.643675061262321</v>
       </c>
       <c r="C13" t="n">
-        <v>0.68449613301243</v>
+        <v>-29.58534062993169</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999855424013592</v>
+        <v>0.2436304744643826</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999013792618976</v>
+        <v>0.7913207042089954</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999552271604237</v>
+        <v>0.6033881828727889</v>
       </c>
       <c r="G13" t="n">
-        <v>1.259400586582947e-05</v>
+        <v>0.2115298760705683</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1872967245012216</v>
+        <v>18.15677941584794</v>
       </c>
       <c r="I13" t="n">
-        <v>1.203668764403907e-05</v>
+        <v>0.4477835247679888</v>
       </c>
       <c r="J13" t="n">
-        <v>4.736619641027189e-05</v>
+        <v>0.2062607877556292</v>
       </c>
       <c r="K13" t="n">
-        <v>2.970144202715548e-05</v>
+        <v>0.327022156261809</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001204256774799452</v>
+        <v>0.2933774522087232</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0035488034414193</v>
+        <v>0.4599237720215909</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000011314545764</v>
+        <v>-0.06897481621303703</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003699883350956379</v>
+        <v>0.4795036791700083</v>
       </c>
       <c r="P13" t="n">
-        <v>160.564579164268</v>
+        <v>35.10677806490981</v>
       </c>
       <c r="Q13" t="n">
-        <v>244.6670110801739</v>
+        <v>54.60879126280102</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999801098281992</v>
+        <v>0.6451696520193118</v>
       </c>
       <c r="C14" t="n">
-        <v>0.684341847410638</v>
+        <v>-31.82563214276633</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999858551808934</v>
+        <v>0.2411440500176875</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999034667975546</v>
+        <v>0.7982395494952227</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999561791173025</v>
+        <v>0.6066425161589949</v>
       </c>
       <c r="G14" t="n">
-        <v>1.180766519166679e-05</v>
+        <v>0.2106426224342596</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1873883150992364</v>
+        <v>19.48671323342091</v>
       </c>
       <c r="I14" t="n">
-        <v>1.177628274218211e-05</v>
+        <v>0.4492555300051406</v>
       </c>
       <c r="J14" t="n">
-        <v>4.636358148517416e-05</v>
+        <v>0.1994221290679661</v>
       </c>
       <c r="K14" t="n">
-        <v>2.906993211367814e-05</v>
+        <v>0.3243388295365534</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001177742911358787</v>
+        <v>0.2910132728665139</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003436228338115323</v>
+        <v>0.4589581924688343</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000010608091627</v>
+        <v>-0.06449104394206473</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003582515692442162</v>
+        <v>0.4784969928966657</v>
       </c>
       <c r="P14" t="n">
-        <v>160.6935232897448</v>
+        <v>35.11518462806352</v>
       </c>
       <c r="Q14" t="n">
-        <v>244.7959552056507</v>
+        <v>54.61719782595473</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999981230615782</v>
+        <v>0.6436127129115087</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6842028609365085</v>
+        <v>-33.38647402248079</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999861469482901</v>
+        <v>0.2445387458532464</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999054493596066</v>
+        <v>0.7899479336573665</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999570798885973</v>
+        <v>0.602891451915014</v>
       </c>
       <c r="G15" t="n">
-        <v>1.114231726698671e-05</v>
+        <v>0.211566888744919</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1874708234741826</v>
+        <v>20.41329639807786</v>
       </c>
       <c r="I15" t="n">
-        <v>1.153337151556273e-05</v>
+        <v>0.4472458127764019</v>
       </c>
       <c r="J15" t="n">
-        <v>4.541138395189961e-05</v>
+        <v>0.2076176484557451</v>
       </c>
       <c r="K15" t="n">
-        <v>2.847237773373117e-05</v>
+        <v>0.3274317306160735</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001152840237323389</v>
+        <v>0.29388783804042</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003338010974665408</v>
+        <v>0.4599640080972847</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00001001033825</v>
+        <v>-0.06916186126547386</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003480117012492213</v>
+        <v>0.4795456281787446</v>
       </c>
       <c r="P15" t="n">
-        <v>160.8095206638048</v>
+        <v>35.10642814330773</v>
       </c>
       <c r="Q15" t="n">
-        <v>244.9119525797106</v>
+        <v>54.60844134119894</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999821771703958</v>
+        <v>0.6441101356804506</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6840774383988635</v>
+        <v>-35.46423680304125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.99998641513776</v>
+        <v>0.2466214967015714</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999072906441975</v>
+        <v>0.7902906957805322</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999579147223</v>
+        <v>0.6038445979306901</v>
       </c>
       <c r="G16" t="n">
-        <v>1.058040155918818e-05</v>
+        <v>0.2112715971017303</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1875452797105003</v>
+        <v>21.64674613929722</v>
       </c>
       <c r="I16" t="n">
-        <v>1.131009011470528e-05</v>
+        <v>0.4460127891224993</v>
       </c>
       <c r="J16" t="n">
-        <v>4.452704005776703e-05</v>
+        <v>0.2072788588059671</v>
       </c>
       <c r="K16" t="n">
-        <v>2.791856508623615e-05</v>
+        <v>0.3266458239642332</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001129565646400664</v>
+        <v>0.2937129166701714</v>
       </c>
       <c r="M16" t="n">
-        <v>0.003252752920095251</v>
+        <v>0.4596429017201618</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000009505509122</v>
+        <v>-0.06766959295864816</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003391229346030501</v>
+        <v>0.4792108516383657</v>
       </c>
       <c r="P16" t="n">
-        <v>160.9130143553995</v>
+        <v>35.10922156633877</v>
       </c>
       <c r="Q16" t="n">
-        <v>245.0154462713053</v>
+        <v>54.61123476422998</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999829757631321</v>
+        <v>0.6438502244276452</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6839646529687613</v>
+        <v>-37.18977708230752</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999986650841544</v>
+        <v>0.240375066199946</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999089887904244</v>
+        <v>0.7927322516116317</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999586773550928</v>
+        <v>0.6030655370709055</v>
       </c>
       <c r="G17" t="n">
-        <v>1.010632241350364e-05</v>
+        <v>0.2114258916489772</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1876122340138858</v>
+        <v>22.67110138852853</v>
       </c>
       <c r="I17" t="n">
-        <v>1.111385470275146e-05</v>
+        <v>0.4497107814037926</v>
       </c>
       <c r="J17" t="n">
-        <v>4.371144356894497e-05</v>
+        <v>0.2048655996124136</v>
       </c>
       <c r="K17" t="n">
-        <v>2.741264913584821e-05</v>
+        <v>0.3272881905081031</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001107913373846425</v>
+        <v>0.2930683615807809</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003179044261016767</v>
+        <v>0.4598107128471206</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000009079592996</v>
+        <v>-0.0684493267170645</v>
       </c>
       <c r="O17" t="n">
-        <v>0.003314382756737086</v>
+        <v>0.479385806832416</v>
       </c>
       <c r="P17" t="n">
-        <v>161.0046986968535</v>
+        <v>35.10776147198566</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.1071306127594</v>
+        <v>54.60977466987687</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999836501922469</v>
+        <v>0.6442373220844388</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6838634102438299</v>
+        <v>-38.23834169197139</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999868587061753</v>
+        <v>0.2416594353709186</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999105479257194</v>
+        <v>0.7931464012228884</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999593721968298</v>
+        <v>0.6037748529038627</v>
       </c>
       <c r="G18" t="n">
-        <v>9.70595215718333e-06</v>
+        <v>0.2111960937581563</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1876723360688631</v>
+        <v>23.29357463645764</v>
       </c>
       <c r="I18" t="n">
-        <v>1.094079680418137e-05</v>
+        <v>0.4489504131775949</v>
       </c>
       <c r="J18" t="n">
-        <v>4.296261213616639e-05</v>
+        <v>0.2044562498264528</v>
       </c>
       <c r="K18" t="n">
-        <v>2.695170447017388e-05</v>
+        <v>0.3267033315020238</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001089316255925714</v>
+        <v>0.292988360947652</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003115437715182785</v>
+        <v>0.4595607617694926</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000008719897468</v>
+        <v>-0.06728803374668346</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003248068348563251</v>
+        <v>0.4791252148199434</v>
       </c>
       <c r="P18" t="n">
-        <v>161.0855424723871</v>
+        <v>35.1099364455687</v>
       </c>
       <c r="Q18" t="n">
-        <v>245.1879743882929</v>
+        <v>54.61194964345991</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999842179121032</v>
+        <v>0.6440989436781029</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6837721068738655</v>
+        <v>-39.07910217561729</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999870357908154</v>
+        <v>0.2444858449990777</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999119571912651</v>
+        <v>0.7906142268304289</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999599934712359</v>
+        <v>0.603271817451281</v>
       </c>
       <c r="G19" t="n">
-        <v>9.368929126241393e-06</v>
+        <v>0.2112782411577932</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1877265376933742</v>
+        <v>23.79268637851164</v>
       </c>
       <c r="I19" t="n">
-        <v>1.07933648169289e-05</v>
+        <v>0.4472771309749057</v>
       </c>
       <c r="J19" t="n">
-        <v>4.228576110144561e-05</v>
+        <v>0.2069590773491525</v>
       </c>
       <c r="K19" t="n">
-        <v>2.653956295918726e-05</v>
+        <v>0.3271181041620291</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001072339967651122</v>
+        <v>0.2944128225674338</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003060870648400777</v>
+        <v>0.4596501290740526</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000008417113545</v>
+        <v>-0.06770316896569106</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003191178248778933</v>
+        <v>0.4792183866756743</v>
       </c>
       <c r="P19" t="n">
-        <v>161.1562235114657</v>
+        <v>35.10915867145195</v>
       </c>
       <c r="Q19" t="n">
-        <v>245.2586554273715</v>
+        <v>54.61117186934316</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999846967403988</v>
+        <v>0.6422249043023678</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6836900506958534</v>
+        <v>-40.78582787361657</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999871867825089</v>
+        <v>0.2414855432413052</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999132317367686</v>
+        <v>0.7850420851804958</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999605496036389</v>
+        <v>0.5988549332194033</v>
       </c>
       <c r="G20" t="n">
-        <v>9.084675965662611e-06</v>
+        <v>0.2123907518855154</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1877752497852845</v>
+        <v>24.80587247955528</v>
       </c>
       <c r="I20" t="n">
-        <v>1.066765653736348e-05</v>
+        <v>0.449053360253196</v>
       </c>
       <c r="J20" t="n">
-        <v>4.167361426687365e-05</v>
+        <v>0.2124666401471035</v>
       </c>
       <c r="K20" t="n">
-        <v>2.617063540211856e-05</v>
+        <v>0.3307600002001497</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001056778673120647</v>
+        <v>0.2963803633274905</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003014079621652788</v>
+        <v>0.460858711413287</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000008161738454</v>
+        <v>-0.07332528709289665</v>
       </c>
       <c r="O20" t="n">
-        <v>0.003142395231151503</v>
+        <v>0.4804784208672003</v>
       </c>
       <c r="P20" t="n">
-        <v>161.2178430474257</v>
+        <v>35.09865506318188</v>
       </c>
       <c r="Q20" t="n">
-        <v>245.3202749633315</v>
+        <v>54.60066826107309</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999850990826821</v>
+        <v>0.647023075999098</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6836161156259641</v>
+        <v>-41.57869157553447</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999873107119492</v>
+        <v>0.2485704720499923</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999143702798384</v>
+        <v>0.7983937791242837</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999610395215687</v>
+        <v>0.6094010308822149</v>
       </c>
       <c r="G21" t="n">
-        <v>8.845828206028871e-06</v>
+        <v>0.2095423498961115</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1878191408365995</v>
+        <v>25.2765506229423</v>
       </c>
       <c r="I21" t="n">
-        <v>1.056447896265269e-05</v>
+        <v>0.4448589628223403</v>
       </c>
       <c r="J21" t="n">
-        <v>4.11267875476308e-05</v>
+        <v>0.1992696868974824</v>
       </c>
       <c r="K21" t="n">
-        <v>2.584563325514175e-05</v>
+        <v>0.3220643248599113</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001042598207129849</v>
+        <v>0.290625550450192</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002974193706877357</v>
+        <v>0.4577579599483896</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000007947155903</v>
+        <v>-0.05893077200270591</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003100811290408856</v>
+        <v>0.4772456639930018</v>
       </c>
       <c r="P21" t="n">
-        <v>161.271129198465</v>
+        <v>35.12565882514704</v>
       </c>
       <c r="Q21" t="n">
-        <v>245.3735611143709</v>
+        <v>54.62767202303825</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999854385771707</v>
+        <v>0.6430601214031338</v>
       </c>
       <c r="C22" t="n">
-        <v>0.683549650310104</v>
+        <v>-47.3391206120889</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999874138383894</v>
+        <v>0.2481443295967125</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999153918225766</v>
+        <v>0.783322565080445</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999614740314863</v>
+        <v>0.6002147965263365</v>
       </c>
       <c r="G22" t="n">
-        <v>8.64428961216437e-06</v>
+        <v>0.2118949309350006</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1878585975192463</v>
+        <v>28.69619013661862</v>
       </c>
       <c r="I22" t="n">
-        <v>1.047862094578538e-05</v>
+        <v>0.4451112463469148</v>
       </c>
       <c r="J22" t="n">
-        <v>4.063615449305045e-05</v>
+        <v>0.2141662317096193</v>
       </c>
       <c r="K22" t="n">
-        <v>2.555738771941791e-05</v>
+        <v>0.3296387390282671</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00102975405626188</v>
+        <v>0.2958485162397497</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002940117278641172</v>
+        <v>0.4603204654748695</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000007766092176</v>
+        <v>-0.07081963579059858</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003065284158074725</v>
+        <v>0.4799172606848616</v>
       </c>
       <c r="P22" t="n">
-        <v>161.3172232309315</v>
+        <v>35.10332947192385</v>
       </c>
       <c r="Q22" t="n">
-        <v>245.4196551468374</v>
+        <v>54.60534266981506</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.999985726725412</v>
+        <v>0.6454802635184522</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6834900042945795</v>
+        <v>-55.468446269246</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999875010145697</v>
+        <v>0.247800008595364</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999163161081431</v>
+        <v>0.7919541378656815</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999618633255201</v>
+        <v>0.6052647009486725</v>
       </c>
       <c r="G23" t="n">
-        <v>8.473232368790867e-06</v>
+        <v>0.2104582300306517</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1878940059706353</v>
+        <v>33.52210901529041</v>
       </c>
       <c r="I23" t="n">
-        <v>1.040604233308912e-05</v>
+        <v>0.4453150901910018</v>
       </c>
       <c r="J23" t="n">
-        <v>4.019223273254787e-05</v>
+        <v>0.205634695337003</v>
       </c>
       <c r="K23" t="n">
-        <v>2.52991375328185e-05</v>
+        <v>0.3254748927640024</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001017988012237973</v>
+        <v>0.2923581978281782</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002910881716729635</v>
+        <v>0.4587572670058228</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000007612413114</v>
+        <v>-0.06355920944464333</v>
       </c>
       <c r="O23" t="n">
-        <v>0.003034803977766658</v>
+        <v>0.4782875136207206</v>
       </c>
       <c r="P23" t="n">
-        <v>161.3571969930114</v>
+        <v>35.11693615541678</v>
       </c>
       <c r="Q23" t="n">
-        <v>245.4596289089172</v>
+        <v>54.61894935330799</v>
       </c>
     </row>
     <row r="24">
@@ -1732,162 +1732,162 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.999985969326547</v>
+        <v>0.6484437916734763</v>
       </c>
       <c r="C24" t="n">
-        <v>0.68343617785355</v>
+        <v>-58.62387436125629</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999875704610958</v>
+        <v>0.2501367025936245</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999171369700645</v>
+        <v>0.8016372882659792</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999622040548319</v>
+        <v>0.6119073707940428</v>
       </c>
       <c r="G24" t="n">
-        <v>8.329213855193249e-06</v>
+        <v>0.2086989517000789</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1879259596712116</v>
+        <v>35.39530743810388</v>
       </c>
       <c r="I24" t="n">
-        <v>1.034822456111741e-05</v>
+        <v>0.4439317279064038</v>
       </c>
       <c r="J24" t="n">
-        <v>3.979798393922815e-05</v>
+        <v>0.1960637687055371</v>
       </c>
       <c r="K24" t="n">
-        <v>2.507310425017278e-05</v>
+        <v>0.3199977483059704</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00100738572472881</v>
+        <v>0.2885723513899743</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002886037743203171</v>
+        <v>0.4568358038727688</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000007483025842</v>
+        <v>-0.05466862497957115</v>
       </c>
       <c r="O24" t="n">
-        <v>0.003008902344853057</v>
+        <v>0.4762842498241156</v>
       </c>
       <c r="P24" t="n">
-        <v>161.391482962732</v>
+        <v>35.13372497582148</v>
       </c>
       <c r="Q24" t="n">
-        <v>245.4939148786378</v>
+        <v>54.63573817371269</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_23</t>
+          <t>model_12_2_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.99998617447965</v>
+        <v>0.6451942006683811</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6833877149289217</v>
+        <v>-59.01362492530694</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999876281989047</v>
+        <v>0.2455844097079716</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999178665007781</v>
+        <v>0.7913214783739305</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999625043750469</v>
+        <v>0.6040901065941962</v>
       </c>
       <c r="G25" t="n">
-        <v>8.207426111136637e-06</v>
+        <v>0.2106280492957257</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1879547293567603</v>
+        <v>35.62668020927205</v>
       </c>
       <c r="I25" t="n">
-        <v>1.030015489269747e-05</v>
+        <v>0.4466267621261794</v>
       </c>
       <c r="J25" t="n">
-        <v>3.944760028023909e-05</v>
+        <v>0.2062600225629502</v>
       </c>
       <c r="K25" t="n">
-        <v>2.487387758646828e-05</v>
+        <v>0.3264433923445648</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0009977764678805094</v>
+        <v>0.292713088182221</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002864860574467218</v>
+        <v>0.4589423158695716</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000007373610853</v>
+        <v>-0.0644173979948568</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002986823620201232</v>
+        <v>0.4784804403977033</v>
       </c>
       <c r="P25" t="n">
-        <v>161.4209423804282</v>
+        <v>35.11532300122375</v>
       </c>
       <c r="Q25" t="n">
-        <v>245.523374296334</v>
+        <v>54.61733619911496</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_24</t>
+          <t>model_12_2_23</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999863497446162</v>
+        <v>0.6451384836317658</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6833443175850945</v>
+        <v>-59.80770575282097</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999876755951276</v>
+        <v>0.2466646637093156</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999185259730912</v>
+        <v>0.7905291001551001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999627728447826</v>
+        <v>0.6040029875073423</v>
       </c>
       <c r="G26" t="n">
-        <v>8.103381256146034e-06</v>
+        <v>0.2106611253355111</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1879804918947237</v>
+        <v>36.09808089099003</v>
       </c>
       <c r="I26" t="n">
-        <v>1.026069512186793e-05</v>
+        <v>0.4459872335253622</v>
       </c>
       <c r="J26" t="n">
-        <v>3.91308647162272e-05</v>
+        <v>0.2070432174409895</v>
       </c>
       <c r="K26" t="n">
-        <v>2.469577991904756e-05</v>
+        <v>0.3265152254831759</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0009890915762920025</v>
+        <v>0.292979011285891</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002846643858326158</v>
+        <v>0.4589783495280699</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000007280136205</v>
+        <v>-0.06458454910470257</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002967831380740246</v>
+        <v>0.4785180080836438</v>
       </c>
       <c r="P26" t="n">
-        <v>161.4464582887179</v>
+        <v>35.11500895527294</v>
       </c>
       <c r="Q26" t="n">
-        <v>245.5488902046237</v>
+        <v>54.61702215316415</v>
       </c>
     </row>
   </sheetData>
